--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -159,15 +159,9 @@
     <t xml:space="preserve"> Сегодня вам нужно выполнять\nзадания.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Выполните задания, которые вам\nпо силам...[K] Не буду вам мешать!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Òåãïäîÿ âàí îôçîï âúðïìîÿóû\nèàäàîéÿ.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Âúðïìîéóå èàäàîéÿ, ëïóïñúå âàí\nðï òéìàí...[K] Îå áôäô âàí íåšàóû!</t>
-  </si>
-  <si>
     <t>SCRIPT/G01P04A/um0502.ssb</t>
   </si>
   <si>
@@ -181,6 +175,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Îå áôäô âàí íåšàóû! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выполните задания, которые вам\nпо силам...[K] Не буду вам мешать! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúðïìîéóå èàäàîéÿ, ëïóïñúå âàí\nðï òéìàí...[K] Îå áôäô âàí íåšàóû! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0605.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0608.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, you two![K] Today your job is\nto gather Perfect Apples.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0702.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Perfect Apples can be found\nin the deepest part of [CS:P]Apple Woods[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now, listen up...[K] This may seem\nsimple. But it\'s an important job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remember, I\'m really trusting\nyou with a very big job! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, вы двое![K] Сегодня ваша\nзадача - собрать Идеальных Яблок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идеальные Яблоки можно найти\nв самых дебрях [CS:P]Яблоневого Леса[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Послушайте...[K] Это задание\nкажется простым. Но оно очень важное.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Помните, я доверяю вам очень\nответственную задачу! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, âú äâïå![K] Òåãïäîÿ âàšà\nèàäàœà - òïáñàóû Éäåàìûîúö Ÿáìïë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäåàìûîúå Ÿáìïëé íïçîï îàêóé\nâ òàíúö äåáñÿö [CS:P]Ÿáìïîåâïãï Ìåòà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìôšàêóå...[K] Üóï èàäàîéå\nëàçåóòÿ ðñïòóúí. Îï ïîï ïœåîû âàçîïå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïíîéóå, ÿ äïâåñÿý âàí ïœåîû\nïóâåóòóâåîîôý èàäàœô! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0704.ssb</t>
   </si>
 </sst>
 </file>
@@ -559,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +837,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -812,15 +863,15 @@
         <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4">
         <v>1342</v>
@@ -843,24 +894,269 @@
         <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
+        <v>1348</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
-        <v>1348</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="B20" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>1290</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
+        <v>1293</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>1290</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>1293</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>1290</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>1293</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1312</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>1315</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>1318</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6">
+        <v>1321</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1290</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
+        <v>1293</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -232,6 +232,162 @@
   </si>
   <si>
     <t>SCRIPT/G01P04A/um0704.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D08P11A/um0901.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, you two! You have yet\nto leave?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get ready quickly! Then be on\nyour way!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, by the way…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can use the Kangaskhan Rock\nto store and take out your items. And to save\nyour progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So you should try using the\nKangaskhan Rock to sort out your inventory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No matter how you choose to do\nthat, just get ready quickly, then head out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, вы двое! Ещё не ушли?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда подготовьтесь! Затем\nидите в лес!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, кстати...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы можете воспользоваться этой\nСтатуей Кангасхана, чтобы открыть\nхранилище. И сохранить прогресс.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, пользуйтесь Статуей\nКангасхана, чтобы распределить предметы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не важно как вы это сделаете,\nпросто подготовьтесь и идите!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, âú äâïå! Åþæ îå ôšìé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà ðïäãïóïâûóåòû! Èàóåí\néäéóå â ìåò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, ëòóàóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú íïçåóå âïòðïìûèïâàóûòÿ üóïê\nÒóàóôåê Ëàîãàòöàîà, œóïáú ïóëñúóû\nöñàîéìéþå. É òïöñàîéóû ðñïãñåòò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ðïìûèôêóåòû Òóàóôåê\nËàîãàòöàîà, œóïáú ñàòðñåäåìéóû ðñåäíåóú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå âàçîï ëàë âú üóï òäåìàåóå,\nðñïòóï ðïäãïóïâûóåòû é éäéóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh? You haven\'t seen our\nGuildmaster? You\'re wondering where he is?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D08P11A/um0904.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guildmaster has...[K]wandered\noff somewhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s amazing, really, how little\npatience he has.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would imagine he\'s taking a\nstroll in the forest without a care in\nthe world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I imagine he\'ll come back\nsoon enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? Вы не видите Гильдмастера?\nХотите знать, где он?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гильдмастер...[K] Куда-то ушёл.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вообще, поражаюсь тому, насколько\nу него мало терпения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я полагаю, что он сейчас\nбеззаботно гуляет по лесу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Думаю, он скоро вернётся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Âú îå âéäéóå Ãéìûäíàòóåñà?\nÖïóéóå èîàóû, ãäå ïî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãéìûäíàòóåñ...[K] Ëôäà-óï ôšæì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïïáþå, ðïñàçàýòû óïíô, îàòëïìûëï\nô îåãï íàìï óåñðåîéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïìàãàý, œóï ïî òåêœàò\náåèèàáïóîï ãôìÿåó ðï ìåòô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äôíàý, ïî òëïñï âåñîæóòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today you two should look up the\nJob Bulletin Board and the Outlaw Notice\nBoard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Handle the jobs listed there.[K]\nI\'ll leave you to it! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня вам нужно осмотреть\nДоску Объявлений и Доску Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выполните несколько заданий.[K]\nНе буду вам мешать! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ âàí îôçîï ïòíïóñåóû\nÄïòëô Ïáùÿâìåîéê é Äïòëô Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúðïìîéóå îåòëïìûëï èàäàîéê.[K]\nÎå áôäô âàí íåšàóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go to [CS:K]Kecleon[CR] Market and inquire\nif they will be carrying Perfect Apples in\nthe future.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправляйтесь к Лавке [CS:K]Кеклеонов[CR]\nи поинтересуйтесь, станут ли они завозить\nИдеальные Яблоки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâìÿêóåòû ë Ìàâëå [CS:K]Ëåëìåïîïâ[CR]\né ðïéîóåñåòôêóåòû, òóàîôó ìé ïîé èàâïèéóû\nÉäåàìûîúå Ÿáìïëé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two! Oh, just go take some\njobs on the Job Bulletin Board and the Outlaw\nNotice Board…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Squawk! ...This won\'t do...[K]\nI\'d best go gather the Perfect Apples by\nmyself... Squawk!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое! Ох, просто выполните\nнесколько заданий с Доски Объявлений и\nДоски Разыскиваемых...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Пик! ...Так не пойдёт...[K]\nМне придётся собирать Идеальные Яблоки\nсамому... Пик!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå! Ïö, ðñïòóï âúðïìîéóå\nîåòëïìûëï èàäàîéê ò Äïòëé Ïáùÿâìåîéê é\nÄïòëé Ñàèúòëéâàåíúö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ðéë! ...Óàë îå ðïêäæó...[K]\nÍîå ðñéäæóòÿ òïáéñàóû Éäåàìûîúå Ÿáìïëé\nòàíïíô... Ðéë!</t>
   </si>
 </sst>
 </file>
@@ -610,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,6 +1315,260 @@
         <v>54</v>
       </c>
     </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1227</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>1230</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>1233</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>1241</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>1249</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6">
+        <v>1252</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1183</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>1186</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>1202</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>1205</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6">
+        <v>1208</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>1161</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6">
+        <v>1164</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1139</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6">
+        <v>1142</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1107</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>1120</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -388,6 +388,306 @@
   </si>
   <si>
     <t xml:space="preserve"> ...Ðéë! ...Óàë îå ðïêäæó...[K]\nÍîå ðñéäæóòÿ òïáéñàóû Éäåàìûîúå Ÿáìïëé\nòàíïíô... Ðéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?[K] You want to take a\nholiday from the guild\'s work today?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You...[K] You must be joking!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re barely making ends meet!\nWe\'re short staffed as it is!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A pair of rookies wanting to\nslack off...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now, smarten up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk![K] We got chewed out right\noff the bat…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then there\'s no choice.[K] We have\nto go out to [CS:P]Amp Plains[CR] without telling [CS:N]Chatot[CR].</t>
+  </si>
+  <si>
+    <t>1064, 1068, 1072</t>
+  </si>
+  <si>
+    <t>1078, 1082, 1086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Вы хотите взять выходной\nи не работать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы...[K] Вы должно быть шутите!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы едва сводим концы с концами!\nУ нас и так не хватает рабочих лап!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И на фоне этого, парочка\nновичков захотела полентяйничать?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поумнейте наконец!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Нам почти сразу же\nотказали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда у нас нет выбора.[K]\nНам придётся пойти на [CS:P]Скалистые Равнины[CR]\nи ничего не говорить [CS:N]Чатоту[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Âú öïóéóå âèÿóû âúöïäîïê\né îå ñàáïóàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú...[K] Âú äïìçîï áúóû šôóéóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú åäâà òâïäéí ëïîøú ò ëïîøàíé!\nÔ îàò é óàë îå öâàóàåó ñàáïœéö ìàð!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É îà õïîå üóïãï, ðàñïœëà\nîïâéœëïâ èàöïóåìà ðïìåîóÿêîéœàóû?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïôíîåêóå îàëïîåø!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà ô îàò îåó âúáïñà.[K]\nÎàí ðñéäæóòÿ ðïêóé îà [CS:P]Òëàìéòóúå Ñàâîéîú[CR]\né îéœåãï îå ãïâïñéóû [CS:N]Œàóïóô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê![K] Îàí ðïœóé òñàèô çå\nïóëàèàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa! No, no, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to keep our plans to go\nto [CS:P]Amp Plains[CR] a secret from [CS:N]Chatot[CR].</t>
+  </si>
+  <si>
+    <t>965, 969, 973</t>
+  </si>
+  <si>
+    <t>979, 983, 987</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй! Нет, нет, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Чатот[CR] не должен узнать, что\nмы собираемся пойти на [CS:P]Скалистые Равнины[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê! Îåó, îåó, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Œàóïó[CR] îå äïìçåî ôèîàóû, œóï\níú òïáéñàåíòÿ ðïêóé îà [CS:P]Òëàìéòóúå Ñàâîéîú[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is it?[K] Are you asking for\ntime off from work again...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ack... No, no! It\'s nothing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll get back to work like\nwe\'re supposed to!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1204.ssb</t>
+  </si>
+  <si>
+    <t>856, 860, 864</t>
+  </si>
+  <si>
+    <t>870, 874, 878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm...[K] I don\'t know what you\'re\ngoing on about, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No matter![K] I\'ll simply ask that\nyou go about jobs for the guild as usual! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk...[K] We can\'t tell [CS:N]Chatot[CR] about\ngoing to [CS:P]Amp Plains[CR].</t>
+  </si>
+  <si>
+    <t>919, 923, 927</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что такое?[K] Вы снова хотите\nпопросить выходной?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эм... Нет, нет! Вовсе нет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы будем работать как обычно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм...[K] Не знаю, что у вас на\nуме, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не важно![K] Я просто попрошу вас\nвыполнить задания с досок, как и всегда! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух...[K] Нам нельзя говорить\n[CS:N]Чатоту[CR], что мы пойдём на [CS:P]Скалистые\nРавнины[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï óàëïå?[K] Âú òîïâà öïóéóå\nðïðñïòéóû âúöïäîïê?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üí... Îåó, îåó! Âïâòå îåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú áôäåí ñàáïóàóû ëàë ïáúœîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí...[K] Îå èîàý, œóï ô âàò îà\nôíå, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå âàçîï![K] Ÿ ðñïòóï ðïðñïšô âàò\nâúðïìîéóû èàäàîéÿ ò äïòïë, ëàë é âòåãäà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö...[K] Îàí îåìûèÿ ãïâïñéóû\n[CS:N]Œàóïóô[CR], œóï íú ðïêäæí îà [CS:P]Òëàìéòóúå\nÑàâîéîú[CR].</t>
+  </si>
+  <si>
+    <t>787, 791, 795</t>
+  </si>
+  <si>
+    <t>801, 805, 809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, [hero] and\n[partner]! You\'ve been assigned the task of\nsearching the [CS:P]Northern Desert[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m counting on you two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, [hero] и [partner]!\nВы назначены на разведку [CS:P]Северной Пустыни[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я полагаюсь на вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, [hero] é [partner]!\nÂú îàèîàœåîú îà ñàèâåäëô [CS:P]Òåâåñîïê Ðôòóúîé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïìàãàýòû îà âàò!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are working up a new plan\nwith the great [CS:N]Dusknoir[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Until we devise a new plan, you\nare free to explore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take the time to investigate the\nwhereabouts of other Time Gears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я обсуждаю новый план вместе\nс великим [CS:N]Даскнуаром[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока мы не разработаем новый\nплан, вы можете исследовать что угодно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Потратьте время на выяснение\nместоположения других Шестерней Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïáòôçäàý îïâúê ðìàî âíåòóå\nò âåìéëéí [CS:N]Äàòëîôàñïí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëà íú îå ñàèñàáïóàåí îïâúê\nðìàî, âú íïçåóå éòòìåäïâàóû œóï ôãïäîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïóñàóûóå âñåíÿ îà âúÿòîåîéå\níåòóïðïìïçåîéÿ äñôãéö Šåòóåñîåê Âñåíåîé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The others have yet to return\nfrom [CS:P]Crystal Cave[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I understand that they are\nscouring the place for clues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two shouldn\'t waste any\ntime joining them.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все остальные ещё не вернулись\nиз [CS:P]Кристальной Пещеры[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Полагаю, они всё ещё исследуют\nэто место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не тратьте время и\nприсоединяйтесь к ним.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ïòóàìûîúå åþæ îå âåñîôìéòû\néè [CS:P]Ëñéòóàìûîïê Ðåþåñú[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïìàãàý, ïîé âòæ åþæ éòòìåäôýó\nüóï íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå óñàóûóå âñåíÿ é\nðñéòïåäéîÿêóåòû ë îéí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone seems to be having a\nrough time…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But our guild takes pride in not\ngiving up until the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know that it is challenging. But\nI need the best out of you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, сейчас всем непросто...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но гордость нашей гильдии в том,\nчто мы никогда не сдаёмся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю, что вам трудно. Но нам\nнужен от вас лучший настрой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, òåêœàò âòåí îåðñïòóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ãïñäïòóû îàšåê ãéìûäéé â óïí,\nœóï íú îéëïãäà îå òäàæíòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý, œóï âàí óñôäîï. Îï îàí\nîôçåî ïó âàò ìôœšéê îàòóñïê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Job Bulletin Board and\nOutlaw Notice Board will do today for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня вас ждёт Доска Объявлений\nи Доска Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ âàò çäæó Äïòëà Ïáùÿâìåîéê\né Äïòëà Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1605.ssb</t>
   </si>
 </sst>
 </file>
@@ -463,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -484,6 +784,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,17 +1862,474 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="4">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6">
         <v>1120</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="7" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>1035</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>1038</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>1041</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="4">
+        <v>841</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>896</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>899</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="4">
+        <v>730</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="6">
+        <v>733</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="4">
+        <v>705</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="4">
+        <v>708</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6">
+        <v>711</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="4">
+        <v>661</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="4">
+        <v>664</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6">
+        <v>667</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" s="4">
+        <v>636</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
+        <v>639</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6">
+        <v>642</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="4">
+        <v>614</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="4">
+        <v>617</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -688,6 +688,123 @@
   </si>
   <si>
     <t>SCRIPT/G01P04A/um1605.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The wise old [CS:N]Torkoal[CR] loves the\nHot Spring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So the Hot Spring would be the\nlogical place to look for him! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мудрый [CS:N]Торкоал[CR] обожает Горячие\nИсточники.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, логично его там и\nпоискать! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íôäñúê [CS:N]Óïñëïàì[CR] ïáïçàåó Ãïñÿœéå\nÉòóïœîéëé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ìïãéœîï åãï óàí é\nðïéòëàóû! ♪</t>
+  </si>
+  <si>
+    <t>570, 548</t>
+  </si>
+  <si>
+    <t>573, 551</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s tomorrow that we\'re off \nto [CS:P]Brine Cave[CR].[K] The whole guild is going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And you two will personally\naccompany me when we explore tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As such, you may not bring\nnonguild members of Team [team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Understood?[K] Now I must insist\nthat you two not slow me down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So I expect you to fully stock up\nwith supplies in Treasure Town! Get prepared!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Завтра мы отправимся в [CS:P]Пещеру у\nМоря[CR].[K] Туда пойдёт вся гильдия!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А вы двое, пойдёте лично со мной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, вы не сможете привести\nс собой других членов Команды\n[team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё поняли?[K] Теперь, я не\nрекомендую вам задерживаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, я ожидаю, что вы\nзапасётесь припасами в Городе Сокровищ!\nИдите!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàâóñà íú ïóðñàâéíòÿ â [CS:P]Ðåþåñô ô\nÍïñÿ[CR].[K] Óôäà ðïêäæó âòÿ ãéìûäéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À âú äâïå, ðïêäæóå ìéœîï òï íîïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, âú îå òíïçåóå ðñéâåòóé\nò òïáïê äñôãéö œìåîïâ Ëïíàîäú\n[team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ ðïîÿìé?[K] Óåðåñû, ÿ îå\nñåëïíåîäôý âàí èàäåñçéâàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ÿ ïçéäàý, œóï âú\nèàðàòæóåòû ðñéðàòàíé â Ãïñïäå Òïëñïâéþ!\nÉäéóå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s no giving up! I won\'t\nhave that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re getting to the end next\ntime, no matter what!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нельзя сдаваться! Я этого не\nпотерплю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В следующий раз мы дойдём до\nконца, любой ценой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåìûèÿ òäàâàóûòÿ! Ÿ üóïãï îå\nðïóåñðìý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òìåäôýþéê ñàè íú äïêäæí äï\nëïîøà, ìýáïê øåîïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll be fine now. There\'s no\nneed for concern! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A much more pressing matter is\nat hand...[K] I\'ll trust you with the rest.\nNow don\'t fail me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я буду в порядке. Не нужно\nпереживать! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть гораздо более важное дело...[K]\nЯ доверю вам остальное. Не подведите меня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áôäô â ðïñÿäëå. Îå îôçîï\nðåñåçéâàóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû ãïñàèäï áïìåå âàçîïå äåìï...[K]\nŸ äïâåñý âàí ïòóàìûîïå. Îå ðïäâåäéóå íåîÿ!</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,20 +2433,189 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="6">
         <v>617</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="7" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="4">
+        <v>517</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="4">
+        <v>520</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="4">
+        <v>523</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>526</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6">
+        <v>529</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="4">
+        <v>495</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6">
+        <v>498</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92" s="4">
+        <v>456</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="4">
+        <v>459</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="296">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -805,6 +805,108 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòóû ãïñàèäï áïìåå âàçîïå äåìï...[K]\nŸ äïâåñý âàí ïòóàìûîïå. Îå ðïäâåäéóå íåîÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deep in [CS:P]Mystifying Forest[CR] is a\nspecial place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is called [CS:P]Luminous Spring[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your objective is to reach\n[CS:P]Luminous Spring[CR]...[K]and return with\nits treasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you can safely return with\nthe treasure, you will pass the exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ll gain official recognition as\na first-rate exploration team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And you will earn the honor of\ngraduating from the guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wish you the best of luck! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если вы сможете принести сюда\nэто сокровище, вы пройдёте экзамен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы официально станете независимой\nи первоклассной командой исследователей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И с почётом выпуститесь из\nгильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Желаю вам удачи! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оно называется [CS:P]Сияющий Источник[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вам нужно достичь [CS:P]Сияющего\nИсточника[CR]...[K] И вернуться с его сокровищем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В дебрях [CS:P]Загадочного Леса[CR] есть\nособое место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â äåáñÿö [CS:P]Èàãàäïœîïãï Ìåòà[CR] åòóû\nïòïáïå íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîï îàèúâàåóòÿ [CS:P]Òéÿýþéê Éòóïœîéë[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàí îôçîï äïòóéœû [CS:P]Òéÿýþåãï\nÉòóïœîéëà[CR]...[K] É âåñîôóûòÿ ò åãï òïëñïâéþåí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé âú òíïçåóå ðñéîåòóé òýäà\nüóï òïëñïâéþå, âú ðñïêäæóå üëèàíåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ïõéøéàìûîï òóàîåóå îåèàâéòéíïê\né ðåñâïëìàòòîïê ëïíàîäïê éòòìåäïâàóåìåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ò ðïœæóïí âúðôòóéóåòû éè\nãéìûäéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çåìàý âàí ôäàœé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well done, you two! Good job!\nI\'m delighted about your graduation from\nthe guild! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now I\'ll expect you to keep on\ndoing highly profitable jobs!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild certainly appreciates\nthe funding you provide! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так держать! Молодцы! Я рад вашему\nвыпуску из гильдии! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы будете выполнять\nтолько самые прибыльные задания!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В гильдии будут очень рады вашему\nщедрому вкладу!♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë äåñçàóû! Íïìïäøú! Ÿ ñàä âàšåíô\nâúðôòëô éè ãéìûäéé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú áôäåóå âúðïìîÿóû\nóïìûëï òàíúå ðñéáúìûîúå èàäàîéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ãéìûäéé áôäôó ïœåîû ñàäú âàšåíô\nþåäñïíô âëìàäô! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us3101.ssb</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2604,18 +2706,171 @@
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B93" s="4">
+    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="6">
         <v>459</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="7" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" s="4">
+        <v>419</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="4">
+        <v>422</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B96" s="4">
+        <v>425</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B97" s="4">
+        <v>428</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B98" s="4">
+        <v>431</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B99" s="4">
+        <v>434</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6">
+        <v>437</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" s="4">
+        <v>375</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="4">
+        <v>378</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B103" s="4">
+        <v>381</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="404">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -907,6 +907,330 @@
   </si>
   <si>
     <t>SCRIPT/G01P04A/us3101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secret Rank?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm...[K] What could such a\nsinister-sounding rank possibly mean for you?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Секретный Ранг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм...[K] И что же такой жутко\nзвучащий ранг может для вас значить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåëñåóîúê Ñàîã?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí...[K] É œóï çå óàëïê çôóëï\nèâôœàþéê ñàîã íïçåó äìÿ âàò èîàœéóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P04A/us0305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would imagine that [CS:N]Manaphy[CR]\nis hungry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why not give him [CS:I]Blue Gummis[CR]?\nThat\'s the favorite of Water-type Pokémon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I believe [CS:I]Blue Gummis[CR] can be\nfound in [CS:P]Craggy Coast[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я предполагаю, что [CS:N]Манафи[CR]\nголоден.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может, стоит накормить его [CS:I]Синим\nЖеле[CR]? Водные Покемоны любят такую еду.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уверен, что [CS:I]Синее Желе[CR] можно\nнайти на [CS:P]Скалистом Берегу[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñåäðïìàãàý, œóï [CS:N]Íàîàõé[CR]\nãïìïäåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó, òóïéó îàëïñíéóû åãï [CS:I]Òéîéí\nÇåìå[CR]? Âïäîúå Ðïëåíïîú ìýáÿó óàëôý åäô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôâåñåî, œóï [CS:I]Òéîåå Çåìå[CR] íïçîï\nîàêóé îà [CS:P]Òëàìéòóïí Áåñåãô[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I trust [CS:N]Manaphy[CR] is well?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We know precious little about\n[CS:N]Manaphy[CR].[K] Take good care of that baby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Полагаю, с [CS:N]Манафи[CR] всё хорошо?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïìàãàý, ò [CS:N]Íàîàõé[CR] âòæ öïñïšï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы очень мало знаем о [CS:N]Манафи[CR].[K]\nБерегите малыша.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïœåîû íàìï èîàåí ï [CS:N]Íàîàõé[CR].[K]\nÁåñåãéóå íàìúšà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will look after [CS:N]Manaphy[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two should get moving to\nthe [CS:P]Miracle Sea[CR] and find the [CS:N]Phione[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/H02P99A/us0303.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я присмотрю за [CS:N]Манафи[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вам следует отправиться к\n[CS:P]Дивному Морю[CR] и найти [CS:N]Фионов[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñéòíïóñý èà [CS:N]Íàîàõé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàí òìåäôåó ïóðñàâéóûòÿ ë\n[CS:P]Äéâîïíô Íïñý[CR] é îàêóé [CS:N]Õéïîïâ[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0311.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, it\'s you two! How are you\nholding up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know that your parting hurt.\nBut it was the right thing to do for [CS:N]Manaphy[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two did the best you could.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sure that [CS:N]Manaphy[CR] won\'t\nforget you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who knows? He may well come\nback one day for a visit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know it\'s sad. But do cheer up.\nTears won\'t help the hurt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, это вы двое! Как настроение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю, расставание прошло\nболезненно. Но для [CS:N]Манафи[CR] так было лучше\nвсего.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое сделали всё, что смогли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверен, что [CS:N]Манафи[CR] вас никогда\nне забудет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто знает? Может, когда-нибудь,\nон придёт навестить нас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю, это грустно. Но, выше нос.\nСлезами горю не поможешь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, üóï âú äâïå! Ëàë îàòóñïåîéå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý, ñàòòóàâàîéå ðñïšìï\náïìåèîåîîï. Îï äìÿ [CS:N]Íàîàõé[CR] óàë áúìï ìôœšå\nâòåãï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå òäåìàìé âòæ, œóï òíïãìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåî, œóï [CS:N]Íàîàõé[CR] âàò îéëïãäà\nîå èàáôäåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï èîàåó? Íïçåó, ëïãäà-îéáôäû,\nïî ðñéäæó îàâåòóéóû îàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý, üóï ãñôòóîï. Îï, âúšå îïò.\nÒìåèàíé ãïñý îå ðïíïçåšû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, you two! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I expect you to work hard and\nearn money for the guild! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, вы двое! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я надеюсь, что вы сегодня\nхорошенько потрудитесь и заработаете\nгильдии денег! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, âú äâïå! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îàäåýòû, œóï âú òåãïäîÿ\nöïñïšåîûëï ðïóñôäéóåòû é èàñàáïóàåóå\nãéìûäéé äåîåã! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hee-heeee! ♪ My goodness!\nEveryone gets so smitten by celebrity! ♪[K]\n(Squawk...if only I could get so silly too...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very well, then...! ♪[K]\n(Squawk! Don\'t...don\'t say it...!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I shall remain here and tend to\nthe guild...[K]while everyone else explores! ♪[K]\n(Squawk! I really want to go too!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, что-ж, тогда!..\n\n\n(Пик! Не... Не говори этого!..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я останусь здесь и буду вести\nдела в гильдии... Пока все заняты\nисследованиями! ♪\n(Пик! Я тоже хочу с ними!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öé-öéééé! ♪ Áïçå íïê!\nÂòå óàë ôâìåœåîú èîàíåîéóïòóÿíé!\n\n(Ðéë... Âïó áú é ÿ íïã âåòóé òåáÿ óàë çå ãìôðï...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, œóï-ç, óïãäà!..\n\n\n(Ðéë! Îå... Îå ãïâïñé üóïãï!..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïòóàîôòû èäåòû é áôäô âåòóé\näåìà â ãéìûäéé... Ðïëà âòå èàîÿóú\néòòìåäïâàîéÿíé! ♪\n(Ðéë! Ÿ óïçå öïœô ò îéíé!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хи-хииии! ♪ Боже мой!\nВсе так увлечены знаменитостями!\n\n(Пик... Вот бы и я мог вести себя так же\nглупо...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hee-heeee! ♪[K] How very weak\nof everyone to get caught up in it all! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why, I\'m positively sure that I\ncould solve that mystery in a jiffy! ♪[K]\n(Whew! Well...now I am glad I didn\'t go...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хи-хииии! ♪[K]Как же глупо, что все\nпопались на всё это! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уверен, что я бы решил эту загадку\nна раз-два! ♪[K]\n(Фух! Ну... Хорошо что я не пошёл с ними...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öé-öéééé! ♪[K]Ëàë çå ãìôðï, œóï âòå\nðïðàìéòû îà âòæ üóï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôâåñåî, œóï ÿ áú ñåšéì üóô èàãàäëô\nîà ñàè-äâà! ♪[K]\n(Õôö! Îô... Öïñïšï œóï ÿ îå ðïšæì ò îéíé...)</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0409.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I do hope you\'ll work hard and\nearn good money again today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Очень надеюсь, что сегодня вы\nхорошенько поработаете и снова заработаете\nкучу денег.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гильдия очень благодарна вам\nза финансовую поддержку! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïœåîû îàäåýòû, œóï òåãïäîÿ âú\nöïñïšåîûëï ðïñàáïóàåóå é òîïâà èàñàáïóàåóå\nëôœô äåîåã.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãéìûäéÿ ïœåîû áìàãïäàñîà âàí\nèà õéîàîòïâôý ðïääåñçëô! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rumor has it that [CS:N]Drowzee[CR] can\nenter dreams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we obtained [CS:N]Drowzee[CR]\'s help,\nit might be possible to enter [CS:N]Azurill[CR]\'s dream.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> По слухам, [CS:N]Дроузи[CR] способен\nпроникать в чужие сны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы заручимся помощью [CS:N]Дроузи[CR],\nто, возможно, мы сможем попасть в сон\n[CS:N]Азурилла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðï òìôöàí, [CS:N]Äñïôèé[CR] òðïòïáåî\nðñïîéëàóû â œôçéå òîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú èàñôœéíòÿ ðïíïþûý [CS:N]Äñïôèé[CR],\nóï, âïèíïçîï, íú òíïçåí ðïðàòóû â òïî\n[CS:N]Àèôñéììà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh?[K] It\'s possible for you to\nenter dreams?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s excellent news![K]\nOf course, the journey has yet to start…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2006.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Теперь вы сможете попасть\nв сон?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прекрасно![K] Конечно, всё ещё даже\nне началось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Óåðåñû âú òíïçåóå ðïðàòóû\nâ òïî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåëñàòîï![K] Ëïîåœîï, âòæ åþæ äàçå\nîå îàœàìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm... What would the world of\ndreams be like...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм... Каким может быть мир\nсновидений?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí... Ëàëéí íïçåó áúóû íéñ\nòîïâéäåîéê?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The entire crew is investigating\nthe distortion of space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you discover anything, share\nit with us right away.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все в гильдии пытаются узнать\nпро искажение пространства.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если вы о чём-нибудь узнаете,\nговорите нам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå â ãéìûäéé ðúóàýóòÿ ôèîàóû\nðñï éòëàçåîéå ðñïòóñàîòóâà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé âú ï œæí-îéáôäû ôèîàåóå,\nãïâïñéóå îàí.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So it was all [CS:N]Darkrai[CR]\'s doing…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Значит, это всё вина [CS:N]Даркрая[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàœéó, üóï âòæ âéîà [CS:N]Äàñëñàÿ[CR]...</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -978,11 +1302,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1009,6 +1342,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,18 +3198,529 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B103" s="4">
+    <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="10">
         <v>381</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="11" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B104" s="4">
+        <v>353</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6">
+        <v>356</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" s="4">
+        <v>328</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B107" s="4">
+        <v>331</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6">
+        <v>334</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" s="4">
+        <v>306</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6">
+        <v>309</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" s="4">
+        <v>284</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6">
+        <v>287</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" s="4">
+        <v>247</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="4">
+        <v>250</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="4">
+        <v>253</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B116" s="4">
+        <v>256</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B117" s="4">
+        <v>259</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B118" s="6">
+        <v>265</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="4">
+        <v>225</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6">
+        <v>228</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="4">
+        <v>199</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="4">
+        <v>202</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B123" s="6">
+        <v>206</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="4">
+        <v>177</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6">
+        <v>180</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" s="4">
+        <v>152</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B127" s="4">
+        <v>155</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6">
+        <v>158</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B129" s="4">
+        <v>130</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6">
+        <v>133</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" s="4">
+        <v>108</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B132" s="6">
+        <v>111</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6">
+        <v>89</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" s="4">
+        <v>67</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6">
+        <v>70</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B136" s="4">
+        <v>48</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чатот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="409">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1231,6 +1231,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Èîàœéó, üóï âòæ âéîà [CS:N]Äàñëñàÿ[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P04A/us2206.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also...[K] I must thank you for\nputting a stop to [CS:N]Darkrai[CR]\'s wicked scheme! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И ещё...[K] Я должен поблагодарить\nвас за то, что положили конец злобным\nкозням [CS:N]Даркрая[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É åþæ...[K] Ÿ äïìçåî ðïáìàãïäàñéóû\nâàò èà óï, œóï ðïìïçéìé ëïîåø èìïáîúí\nëïèîÿí [CS:N]Äàñëñàÿ[CR]! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2303.ssb</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1311,11 +1326,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1348,6 +1374,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1630,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3707,20 +3739,82 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="12">
         <v>48</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="13" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="4">
+        <v>18</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B138" s="4">
+        <v>21</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B139" s="4">
+        <v>24</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B140" s="4">
+        <v>28</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
